--- a/teams-and-rosters/CS320-Sp22-102-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-102-section-roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04063D2A-7FAF-4924-A2D0-0C41559D6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9F10B-DA9F-4FF7-9CB4-5D231D4031C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="294" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3228" yWindow="624" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-102-roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Last Name</t>
   </si>
@@ -38,6 +38,141 @@
   </si>
   <si>
     <t>CS 320 Section 102 (MWF 11:00 - 11:50)</t>
+  </si>
+  <si>
+    <t>Bussiere</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Carbaugh</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Christman</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Jacoby</t>
+  </si>
+  <si>
+    <t>Koen</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Mcbride</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Mccloskey</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Nall</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Sanjuan</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>nbussiere@ycp.edu</t>
+  </si>
+  <si>
+    <t>bcarbaugh@ycp.edu</t>
+  </si>
+  <si>
+    <t>nchristman@ycp.edu</t>
+  </si>
+  <si>
+    <t>dile@ycp.edu</t>
+  </si>
+  <si>
+    <t>kjacoby3@ycp.edu</t>
+  </si>
+  <si>
+    <t>jking37@ycp.edu</t>
+  </si>
+  <si>
+    <t>tmason9@ycp.edu</t>
+  </si>
+  <si>
+    <t>bmcbride1@ycp.edu</t>
+  </si>
+  <si>
+    <t>jmccloskey@ycp.edu</t>
+  </si>
+  <si>
+    <t>lnall@ycp.edu</t>
+  </si>
+  <si>
+    <t>cogden1@ycp.edu</t>
+  </si>
+  <si>
+    <t>ssanjuan1@ycp.edu</t>
+  </si>
+  <si>
+    <t>rweaver11@ycp.edu</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>MATH</t>
   </si>
 </sst>
 </file>
@@ -545,7 +680,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -561,6 +696,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -942,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A4" sqref="A4:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -991,100 +1130,235 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4"/>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5"/>
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6"/>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7"/>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8"/>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9"/>
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10"/>
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11"/>
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12"/>
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13"/>
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14"/>
+      <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15"/>
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16"/>
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teams-and-rosters/CS320-Sp22-102-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-102-section-roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9F10B-DA9F-4FF7-9CB4-5D231D4031C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D24599-664E-4EF5-AD25-5BE9C08ECD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="624" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="246" yWindow="0" windowWidth="16722" windowHeight="11754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-102-roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Last Name</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>MATH</t>
+  </si>
+  <si>
+    <t>Kettula</t>
+  </si>
+  <si>
+    <t>jkettula@ycp.edu</t>
+  </si>
+  <si>
+    <t>Stinson</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>bstinson@ycp.edu</t>
   </si>
 </sst>
 </file>
@@ -695,11 +710,11 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1097,13 +1112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4"/>
@@ -1130,235 +1145,273 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{C6DF75B6-9B15-435D-9167-154816565199}"/>
+    <hyperlink ref="E17" r:id="rId2" xr:uid="{48EF55F5-9A01-4BAD-9B4C-EFC2DEFB1EA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>